--- a/3rd assignment/Data/covid example dataset.xlsx
+++ b/3rd assignment/Data/covid example dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebit\Documents\GitHub\Causal-inference-course\3rd assignment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8447CD67-AE12-4EDA-B520-67DBC6E86032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C704A7-424A-499A-BB47-43A4951C22E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4B9C323E-8679-4AB8-814C-CAB5F55B5A5A}"/>
+    <workbookView xWindow="5052" yWindow="1380" windowWidth="11412" windowHeight="10980" xr2:uid="{4B9C323E-8679-4AB8-814C-CAB5F55B5A5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,47 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Patient</t>
   </si>
   <si>
-    <r>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
     <t>Age</t>
-  </si>
-  <si>
-    <t>TE</t>
   </si>
   <si>
     <t>D</t>
@@ -84,33 +49,12 @@
   <si>
     <t>Y</t>
   </si>
-  <si>
-    <t>SDO</t>
-  </si>
-  <si>
-    <t>ATT</t>
-  </si>
-  <si>
-    <t>ATU</t>
-  </si>
-  <si>
-    <t>Selection bias</t>
-  </si>
-  <si>
-    <t>HTE bias</t>
-  </si>
-  <si>
-    <t>SDO by sums</t>
-  </si>
-  <si>
-    <t>AVERAGE</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,14 +64,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -186,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -197,16 +133,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -523,19 +456,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628B0F02-8558-48C4-A121-B7AB258AC31C}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,390 +478,162 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="5">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
-        <v>29</v>
-      </c>
-      <c r="E2" s="5">
-        <f>B2-C2</f>
-        <v>-9</v>
-      </c>
-      <c r="F2" s="5">
-        <f>IF(E2&lt;0,0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <f>IF(F2=0,C2,B2)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="5">
+        <v>35</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
         <v>5</v>
       </c>
-      <c r="D3" s="5">
-        <v>35</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" ref="E3:E12" si="0">B3-C3</f>
-        <v>-4</v>
-      </c>
-      <c r="F3" s="5">
-        <f t="shared" ref="F3:F12" si="1">IF(E3&lt;0,0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:G12" si="2">IF(F3=0,C3,B3)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="5">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
         <v>4</v>
       </c>
-      <c r="D4" s="5">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="5">
+        <v>45</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
         <v>6</v>
       </c>
-      <c r="D5" s="5">
-        <v>45</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
+        <v>65</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>65</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="5">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
         <v>7</v>
       </c>
-      <c r="D7" s="5">
-        <v>50</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="5">
+        <v>77</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
         <v>8</v>
       </c>
-      <c r="D8" s="5">
-        <v>77</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="5">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
         <v>10</v>
       </c>
-      <c r="D9" s="5">
-        <v>18</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
+        <v>85</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5">
-        <v>85</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
+        <v>96</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
         <v>9</v>
       </c>
-      <c r="C11" s="4">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5">
-        <v>96</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
+        <v>77</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
         <v>10</v>
-      </c>
-      <c r="C12" s="4">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5">
-        <v>77</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <f>AVERAGE(E2:E12)</f>
-        <v>-0.54545454545454541</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <f>SUMIF(F2:F12,"=0",G2:G12)</f>
-        <v>50</v>
-      </c>
-      <c r="H13">
-        <f>G13/(11-SUM(F2:F12))</f>
-        <v>7.1428571428571432</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7">
-        <f>SUMIF(F2:F12,"=1",G2:G12)</f>
-        <v>32</v>
-      </c>
-      <c r="H14">
-        <f>G14/SUM(F2:F12)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15">
-        <f>H14-H13</f>
-        <v>0.85714285714285676</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17">
-        <f>AVERAGEIF(F2:F12,"=1",E2:E12)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18">
-        <f>AVERAGEIF(F2:F12,"=0",E2:E12)</f>
-        <v>-3.1428571428571428</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <f>AVERAGEIF(F2:F12,"=1",C2:C12)-AVERAGEIF(F2:F12,"=0",C2:C12)</f>
-        <v>-3.1428571428571432</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <f>(7/11)*(G17-G18)</f>
-        <v>4.545454545454545</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22">
-        <f>E13+G20+G21</f>
-        <v>0.85714285714285632</v>
       </c>
     </row>
   </sheetData>
